--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Col1a1-Cd93.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Col1a1-Cd93.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.379369</v>
+        <v>1.120168333333333</v>
       </c>
       <c r="H2">
-        <v>31.138107</v>
+        <v>3.360505</v>
       </c>
       <c r="I2">
-        <v>0.01614698522449884</v>
+        <v>0.001768092629909379</v>
       </c>
       <c r="J2">
-        <v>0.01614698522449883</v>
+        <v>0.001768092629909379</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>124.722578</v>
+        <v>91.51130433333333</v>
       </c>
       <c r="N2">
-        <v>374.167734</v>
+        <v>274.533913</v>
       </c>
       <c r="O2">
-        <v>0.9767311432246923</v>
+        <v>0.9685519820468944</v>
       </c>
       <c r="P2">
-        <v>0.9767311432246923</v>
+        <v>0.9685519820468945</v>
       </c>
       <c r="Q2">
-        <v>1294.541659693282</v>
+        <v>102.5080652562294</v>
       </c>
       <c r="R2">
-        <v>11650.87493723954</v>
+        <v>922.5725873060649</v>
       </c>
       <c r="S2">
-        <v>0.01577126333795696</v>
+        <v>0.001712489621141235</v>
       </c>
       <c r="T2">
-        <v>0.01577126333795696</v>
+        <v>0.001712489621141235</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.379369</v>
+        <v>1.120168333333333</v>
       </c>
       <c r="H3">
-        <v>31.138107</v>
+        <v>3.360505</v>
       </c>
       <c r="I3">
-        <v>0.01614698522449884</v>
+        <v>0.001768092629909379</v>
       </c>
       <c r="J3">
-        <v>0.01614698522449883</v>
+        <v>0.001768092629909379</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>0.404136</v>
       </c>
       <c r="O3">
-        <v>0.001054960600366076</v>
+        <v>0.001425786415744213</v>
       </c>
       <c r="P3">
-        <v>0.001054960600366076</v>
+        <v>0.001425786415744214</v>
       </c>
       <c r="Q3">
-        <v>1.398225556728</v>
+        <v>0.15090011652</v>
       </c>
       <c r="R3">
-        <v>12.584030010552</v>
+        <v>1.35810104868</v>
       </c>
       <c r="S3">
-        <v>1.703443322653945E-05</v>
+        <v>2.520922453502253E-06</v>
       </c>
       <c r="T3">
-        <v>1.703443322653945E-05</v>
+        <v>2.520922453502253E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.379369</v>
+        <v>1.120168333333333</v>
       </c>
       <c r="H4">
-        <v>31.138107</v>
+        <v>3.360505</v>
       </c>
       <c r="I4">
-        <v>0.01614698522449884</v>
+        <v>0.001768092629909379</v>
       </c>
       <c r="J4">
-        <v>0.01614698522449883</v>
+        <v>0.001768092629909379</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.836578333333334</v>
+        <v>2.836578333333333</v>
       </c>
       <c r="N4">
-        <v>8.509735000000001</v>
+        <v>8.509734999999999</v>
       </c>
       <c r="O4">
-        <v>0.02221389617494163</v>
+        <v>0.03002223153736139</v>
       </c>
       <c r="P4">
-        <v>0.02221389617494163</v>
+        <v>0.03002223153736139</v>
       </c>
       <c r="Q4">
-        <v>29.44189321907167</v>
+        <v>3.177445224019444</v>
       </c>
       <c r="R4">
-        <v>264.977038971645</v>
+        <v>28.597007016175</v>
       </c>
       <c r="S4">
-        <v>0.0003586874533153337</v>
+        <v>5.30820863146416E-05</v>
       </c>
       <c r="T4">
-        <v>0.0003586874533153337</v>
+        <v>5.30820863146416E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>1812.093628</v>
       </c>
       <c r="I5">
-        <v>0.9396797639857967</v>
+        <v>0.9534130698726969</v>
       </c>
       <c r="J5">
-        <v>0.9396797639857967</v>
+        <v>0.9534130698726969</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>124.722578</v>
+        <v>91.51130433333333</v>
       </c>
       <c r="N5">
-        <v>374.167734</v>
+        <v>274.533913</v>
       </c>
       <c r="O5">
-        <v>0.9767311432246923</v>
+        <v>0.9685519820468944</v>
       </c>
       <c r="P5">
-        <v>0.9767311432246923</v>
+        <v>0.9685519820468945</v>
       </c>
       <c r="Q5">
-        <v>75336.32962051099</v>
+        <v>55275.68382413404</v>
       </c>
       <c r="R5">
-        <v>678026.966584599</v>
+        <v>497481.1544172064</v>
       </c>
       <c r="S5">
-        <v>0.9178144901429562</v>
+        <v>0.9234301185346149</v>
       </c>
       <c r="T5">
-        <v>0.9178144901429562</v>
+        <v>0.923430118534615</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1812.093628</v>
       </c>
       <c r="I6">
-        <v>0.9396797639857967</v>
+        <v>0.9534130698726969</v>
       </c>
       <c r="J6">
-        <v>0.9396797639857967</v>
+        <v>0.9534130698726969</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,10 +806,10 @@
         <v>0.404136</v>
       </c>
       <c r="O6">
-        <v>0.001054960600366076</v>
+        <v>0.001425786415744213</v>
       </c>
       <c r="P6">
-        <v>0.001054960600366076</v>
+        <v>0.001425786415744214</v>
       </c>
       <c r="Q6">
         <v>81.37025227171199</v>
@@ -818,10 +818,10 @@
         <v>732.332270445408</v>
       </c>
       <c r="S6">
-        <v>0.0009913251279663087</v>
+        <v>0.00135936340361748</v>
       </c>
       <c r="T6">
-        <v>0.0009913251279663087</v>
+        <v>0.00135936340361748</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1812.093628</v>
       </c>
       <c r="I7">
-        <v>0.9396797639857967</v>
+        <v>0.9534130698726969</v>
       </c>
       <c r="J7">
-        <v>0.9396797639857967</v>
+        <v>0.9534130698726969</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.836578333333334</v>
+        <v>2.836578333333333</v>
       </c>
       <c r="N7">
-        <v>8.509735000000001</v>
+        <v>8.509734999999999</v>
       </c>
       <c r="O7">
-        <v>0.02221389617494163</v>
+        <v>0.03002223153736139</v>
       </c>
       <c r="P7">
-        <v>0.02221389617494163</v>
+        <v>0.03002223153736139</v>
       </c>
       <c r="Q7">
-        <v>1713.381841052065</v>
+        <v>1713.381841052064</v>
       </c>
       <c r="R7">
         <v>15420.43656946858</v>
       </c>
       <c r="S7">
-        <v>0.02087394871487414</v>
+        <v>0.02862358793446463</v>
       </c>
       <c r="T7">
-        <v>0.02087394871487415</v>
+        <v>0.02862358793446463</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,13 +909,13 @@
         <v>28.39480333333333</v>
       </c>
       <c r="H8">
-        <v>85.18440999999999</v>
+        <v>85.18441</v>
       </c>
       <c r="I8">
-        <v>0.04417325078970441</v>
+        <v>0.04481883749739363</v>
       </c>
       <c r="J8">
-        <v>0.04417325078970441</v>
+        <v>0.04481883749739363</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>124.722578</v>
+        <v>91.51130433333333</v>
       </c>
       <c r="N8">
-        <v>374.167734</v>
+        <v>274.533913</v>
       </c>
       <c r="O8">
-        <v>0.9767311432246923</v>
+        <v>0.9685519820468944</v>
       </c>
       <c r="P8">
-        <v>0.9767311432246923</v>
+        <v>0.9685519820468945</v>
       </c>
       <c r="Q8">
-        <v>3541.473073536326</v>
+        <v>2598.445489321814</v>
       </c>
       <c r="R8">
-        <v>31873.25766182693</v>
+        <v>23386.00940389633</v>
       </c>
       <c r="S8">
-        <v>0.04314538974377903</v>
+        <v>0.04340937389113827</v>
       </c>
       <c r="T8">
-        <v>0.04314538974377903</v>
+        <v>0.04340937389113828</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,13 +971,13 @@
         <v>28.39480333333333</v>
       </c>
       <c r="H9">
-        <v>85.18440999999999</v>
+        <v>85.18441</v>
       </c>
       <c r="I9">
-        <v>0.04417325078970441</v>
+        <v>0.04481883749739363</v>
       </c>
       <c r="J9">
-        <v>0.04417325078970441</v>
+        <v>0.04481883749739363</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,22 +992,22 @@
         <v>0.404136</v>
       </c>
       <c r="O9">
-        <v>0.001054960600366076</v>
+        <v>0.001425786415744213</v>
       </c>
       <c r="P9">
-        <v>0.001054960600366076</v>
+        <v>0.001425786415744214</v>
       </c>
       <c r="Q9">
-        <v>3.825120746639999</v>
+        <v>3.82512074664</v>
       </c>
       <c r="R9">
-        <v>34.42608671975999</v>
+        <v>34.42608671976</v>
       </c>
       <c r="S9">
-        <v>4.660103917322781E-05</v>
+        <v>6.390208967323121E-05</v>
       </c>
       <c r="T9">
-        <v>4.660103917322781E-05</v>
+        <v>6.390208967323121E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,13 +1033,13 @@
         <v>28.39480333333333</v>
       </c>
       <c r="H10">
-        <v>85.18440999999999</v>
+        <v>85.18441</v>
       </c>
       <c r="I10">
-        <v>0.04417325078970441</v>
+        <v>0.04481883749739363</v>
       </c>
       <c r="J10">
-        <v>0.04417325078970441</v>
+        <v>0.04481883749739363</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,16 +1048,16 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.836578333333334</v>
+        <v>2.836578333333333</v>
       </c>
       <c r="N10">
-        <v>8.509735000000001</v>
+        <v>8.509734999999999</v>
       </c>
       <c r="O10">
-        <v>0.02221389617494163</v>
+        <v>0.03002223153736139</v>
       </c>
       <c r="P10">
-        <v>0.02221389617494163</v>
+        <v>0.03002223153736139</v>
       </c>
       <c r="Q10">
         <v>80.54408391459444</v>
@@ -1066,10 +1066,10 @@
         <v>724.89675523135</v>
       </c>
       <c r="S10">
-        <v>0.0009812600067521521</v>
+        <v>0.001345561516582126</v>
       </c>
       <c r="T10">
-        <v>0.0009812600067521523</v>
+        <v>0.001345561516582126</v>
       </c>
     </row>
   </sheetData>
